--- a/currentbuild/StructureDefinition-no-domain-Trustframework-Encounter.xlsx
+++ b/currentbuild/StructureDefinition-no-domain-Trustframework-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T11:47:09+00:00</t>
+    <t>2024-09-10T12:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-domain-Trustframework-Encounter.xlsx
+++ b/currentbuild/StructureDefinition-no-domain-Trustframework-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:02:36+00:00</t>
+    <t>2024-09-10T12:10:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-domain-Trustframework-Encounter.xlsx
+++ b/currentbuild/StructureDefinition-no-domain-Trustframework-Encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.6</t>
+    <t>0.9.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:10:45+00:00</t>
+    <t>2024-09-11T05:52:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-domain-Trustframework-Encounter.xlsx
+++ b/currentbuild/StructureDefinition-no-domain-Trustframework-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T05:52:58+00:00</t>
+    <t>2024-09-11T06:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-domain-Trustframework-Encounter.xlsx
+++ b/currentbuild/StructureDefinition-no-domain-Trustframework-Encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.7</t>
+    <t>0.9.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T06:02:16+00:00</t>
+    <t>2024-11-07T07:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -702,7 +702,7 @@
     <t>Encounter.serviceType</t>
   </si>
   <si>
-    <t>care-relation:healthcare-service:*</t>
+    <t>care_relation:healthcare_service:*</t>
   </si>
   <si>
     <t>Broad categorization of the service that is to be provided (e.g. cardiology).</t>
@@ -770,7 +770,7 @@
     <t>Encounter.serviceType.coding.system</t>
   </si>
   <si>
-    <t>care-relation:healthcare-service:system</t>
+    <t>care_relation:healthcare_service:system</t>
   </si>
   <si>
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
@@ -815,7 +815,7 @@
     <t>Encounter.serviceType.coding.code</t>
   </si>
   <si>
-    <t>care-relation:healthcare-service:code</t>
+    <t>care_relation:healthcare_service:code</t>
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
@@ -836,7 +836,7 @@
     <t>Encounter.serviceType.coding.display</t>
   </si>
   <si>
-    <t>care-relation:healthcare-service:text</t>
+    <t>care_relation:healthcare_service:text</t>
   </si>
   <si>
     <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
